--- a/RESULTS_IEEE14_MainModelsTest_100Epochs.xlsx
+++ b/RESULTS_IEEE14_MainModelsTest_100Epochs.xlsx
@@ -14,15 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sparsity</t>
   </si>
   <si>
-    <t>Model 1</t>
-  </si>
-  <si>
-    <t>Model 7</t>
+    <t>Model 1 Accuracy</t>
+  </si>
+  <si>
+    <t>Model 7 Accuracy</t>
+  </si>
+  <si>
+    <t>Model 1 F1</t>
+  </si>
+  <si>
+    <t>Model 7 F1</t>
+  </si>
+  <si>
+    <t>Model 1 Precision</t>
+  </si>
+  <si>
+    <t>Model 7 Precision</t>
+  </si>
+  <si>
+    <t>Model 1 Recall</t>
+  </si>
+  <si>
+    <t>Model 7 Recall</t>
+  </si>
+  <si>
+    <t>Model 1 False Positive Rate</t>
+  </si>
+  <si>
+    <t>Model 7 False Positive Rate</t>
   </si>
 </sst>
 </file>
@@ -380,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +420,32 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -405,13 +453,37 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.718500018119812</v>
+        <v>0.7394999861717224</v>
       </c>
       <c r="D2">
-        <v>0.9010000228881836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.8450000286102295</v>
+      </c>
+      <c r="E2">
+        <v>0.647734956051386</v>
+      </c>
+      <c r="F2">
+        <v>0.8165680473372781</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0.479</v>
+      </c>
+      <c r="J2">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -419,13 +491,37 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.8464999794960022</v>
+        <v>0.8324999809265137</v>
       </c>
       <c r="D3">
-        <v>0.9624999761581421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.9294999837875366</v>
+      </c>
+      <c r="E3">
+        <v>0.7987987987987988</v>
+      </c>
+      <c r="F3">
+        <v>0.9241527703066165</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.665</v>
+      </c>
+      <c r="J3">
+        <v>0.859</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -433,13 +529,37 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>0.8784999847412109</v>
+        <v>0.8840000033378601</v>
       </c>
       <c r="D4">
-        <v>0.9815000295639038</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.953000009059906</v>
+      </c>
+      <c r="E4">
+        <v>0.8687782805429864</v>
+      </c>
+      <c r="F4">
+        <v>0.9506820566631689</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.768</v>
+      </c>
+      <c r="J4">
+        <v>0.906</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -447,13 +567,37 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>0.9154999852180481</v>
+        <v>0.9169999957084656</v>
       </c>
       <c r="D5">
-        <v>0.9925000071525574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.9720000028610229</v>
+      </c>
+      <c r="E5">
+        <v>0.9094874591057797</v>
+      </c>
+      <c r="F5">
+        <v>0.9711934156378601</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.834</v>
+      </c>
+      <c r="J5">
+        <v>0.944</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -461,13 +605,37 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>0.9440000057220459</v>
+        <v>0.9265000224113464</v>
       </c>
       <c r="D6">
-        <v>0.9975000023841858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.9890000224113464</v>
+      </c>
+      <c r="E6">
+        <v>0.9207547169811321</v>
+      </c>
+      <c r="F6">
+        <v>0.9888776541961577</v>
+      </c>
+      <c r="G6">
+        <v>0.9988304093567252</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.854</v>
+      </c>
+      <c r="J6">
+        <v>0.978</v>
+      </c>
+      <c r="K6">
+        <v>0.001</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -475,13 +643,37 @@
         <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.8934999704360962</v>
+        <v>0.8995000123977661</v>
       </c>
       <c r="D7">
-        <v>0.9940000176429749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.9739999771118164</v>
+      </c>
+      <c r="E7">
+        <v>0.8882712618121179</v>
+      </c>
+      <c r="F7">
+        <v>0.973305954825462</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.799</v>
+      </c>
+      <c r="J7">
+        <v>0.948</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -489,13 +681,37 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="C8">
-        <v>0.8899999856948853</v>
+        <v>0.8859999775886536</v>
       </c>
       <c r="D8">
-        <v>0.9980000257492065</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.9775000214576721</v>
+      </c>
+      <c r="E8">
+        <v>0.871331828442438</v>
+      </c>
+      <c r="F8">
+        <v>0.9769820971867007</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.772</v>
+      </c>
+      <c r="J8">
+        <v>0.955</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -503,13 +719,37 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>0.9854999780654907</v>
+        <v>0.9879999756813049</v>
       </c>
       <c r="D9">
-        <v>0.9975000023841858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.9965000152587891</v>
+      </c>
+      <c r="E9">
+        <v>0.9878542510121457</v>
+      </c>
+      <c r="F9">
+        <v>0.9965052421367948</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.9950149551345963</v>
+      </c>
+      <c r="I9">
+        <v>0.976</v>
+      </c>
+      <c r="J9">
+        <v>0.998</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -517,13 +757,37 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>0.968999981880188</v>
+        <v>0.9769999980926514</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.9984999895095825</v>
+      </c>
+      <c r="E10">
+        <v>0.9764585465711361</v>
+      </c>
+      <c r="F10">
+        <v>0.99849774661993</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.954</v>
+      </c>
+      <c r="J10">
+        <v>0.997</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -531,10 +795,34 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.9959999918937683</v>
+        <v>0.9955000281333923</v>
       </c>
       <c r="D11">
         <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.9954796584630838</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.991</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
